--- a/va_facility_data_2025-02-20/Fort Collins VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Collins%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Collins VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Collins%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R241c159ccdd7479c9d81ae6fbe9f138d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd8da1b693ffc414b8e44202ffdde543a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0047c46bf3304fad83177cfe94e5e7f7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc5ca33cb1fb94fab848ac748e706260e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R60f39e662e6b4c0199f2ee78effb0637"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc7420ffe5fa144ff806b9f014a93b775"/>
   </x:sheets>
 </x:workbook>
 </file>
